--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Waleed\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Waleed\Documents\Github\VOIS_Task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5E61E9-CF31-49A8-AF9D-4963A192796E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08694094-20F2-4991-9806-7B666E2A69DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -391,27 +391,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -419,6 +398,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,38 +699,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="15"/>
-    <col min="2" max="2" width="59.33203125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="15"/>
-    <col min="5" max="5" width="54.21875" style="15" customWidth="1"/>
-    <col min="6" max="6" width="53.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="88.21875" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="74.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="15"/>
+    <col min="1" max="1" width="8.88671875" style="8"/>
+    <col min="2" max="2" width="59.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="8"/>
+    <col min="5" max="5" width="54.21875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="53.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="88.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="74.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="16"/>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="13"/>
+      <c r="E1" s="18"/>
       <c r="F1" s="4" t="s">
         <v>26</v>
       </c>
@@ -744,310 +744,311 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:12" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="14"/>
+      <c r="E2" s="19"/>
       <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
+    <row r="3" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="13"/>
       <c r="F3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
+    <row r="4" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="13"/>
       <c r="F4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
+    <row r="5" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
+    <row r="6" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="13"/>
       <c r="F6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
+    <row r="7" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="13"/>
       <c r="F7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
+    <row r="8" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-    </row>
-    <row r="9" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:12" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
+    <row r="10" spans="1:12" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="8"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
+    <row r="11" spans="1:12" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="8"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
+    <row r="12" spans="1:12" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
+    <row r="13" spans="1:12" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="13"/>
       <c r="F13" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="10" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
+      <c r="L13" s="10"/>
+    </row>
+    <row r="14" spans="1:12" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="10" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="A9:B14"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="A2:B7"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
